--- a/data/SKILLSABILITIES.xlsx
+++ b/data/SKILLSABILITIES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TN3Vocab\EnglishTN3Vocab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3450260-DFEC-453F-A0EE-82FE1E4DBD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92919A9E-041D-4A1C-8F81-32C9ADCB2A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5152A6AE-8C35-49D4-B09B-AC86C9DA8F98}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Skill</t>
   </si>
@@ -54,9 +54,6 @@
     <t>qualifications</t>
   </si>
   <si>
-    <t>những phẩm chất cần thiết cho một vị trí (gồm knowledge, skills, talents...)</t>
-  </si>
-  <si>
     <t>compassion (n)</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>common sense</t>
   </si>
   <si>
-    <t>khả năng đưa ra quyết định đúng đắn trong thời gian ngắn (lẽ thường)</t>
-  </si>
-  <si>
     <t>athletic ability</t>
   </si>
   <si>
@@ -118,13 +112,61 @@
   </si>
   <si>
     <t>Examples</t>
+  </si>
+  <si>
+    <t>Communication is a vital skill in any workplace.</t>
+  </si>
+  <si>
+    <t>She has a natural talent for playing the piano.</t>
+  </si>
+  <si>
+    <t>This job requires at least three years of experience in sales.</t>
+  </si>
+  <si>
+    <t>He has extensive knowledge of world history.</t>
+  </si>
+  <si>
+    <t>những phẩm chất cần thiết (gồm knowledge, skills, talents...)</t>
+  </si>
+  <si>
+    <t>She has the right qualifications for the manager position.</t>
+  </si>
+  <si>
+    <t>A good nurse must show compassion for their patients.</t>
+  </si>
+  <si>
+    <t>He has a good memory for remembering names and faces.</t>
+  </si>
+  <si>
+    <t>Her artistic ability is evident in her beautiful paintings.</t>
+  </si>
+  <si>
+    <t>Engineers usually need strong mathematical ability.</t>
+  </si>
+  <si>
+    <t>Solving this puzzle requires logical thinking.</t>
+  </si>
+  <si>
+    <t>Surgeons need excellent manual dexterity to perform delicate operations.</t>
+  </si>
+  <si>
+    <t>khả năng đưa ra quyết định đúng đắn (lẽ thường)</t>
+  </si>
+  <si>
+    <t>It's just common sense to look both ways before crossing the street.</t>
+  </si>
+  <si>
+    <t>His athletic ability helped him win the scholarship.</t>
+  </si>
+  <si>
+    <t>We are looking for someone with strong leadership skills to lead the team.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +175,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -156,17 +205,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -174,14 +223,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,152 +548,180 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
